--- a/1/6/1/2/2/Trimestral 2003 a 2021 - Trimestral.xlsx
+++ b/1/6/1/2/2/Trimestral 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Serie</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2429,34 +2432,69 @@
         <v>63</v>
       </c>
       <c r="B54">
-        <v>106.5</v>
+        <v>106.2</v>
       </c>
       <c r="C54">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D54">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E54">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="F54">
-        <v>253.7</v>
+        <v>253.1</v>
       </c>
       <c r="G54">
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
       <c r="H54">
-        <v>126.8</v>
+        <v>126.9</v>
       </c>
       <c r="I54">
-        <v>117.2</v>
+        <v>117</v>
       </c>
       <c r="J54">
-        <v>108.4</v>
+        <v>107.4</v>
       </c>
       <c r="K54">
         <v>101.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>103.2</v>
+      </c>
+      <c r="C55">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D55">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E55">
+        <v>105.9</v>
+      </c>
+      <c r="F55">
+        <v>110.2</v>
+      </c>
+      <c r="G55">
+        <v>119.5</v>
+      </c>
+      <c r="H55">
+        <v>130.2</v>
+      </c>
+      <c r="I55">
+        <v>122</v>
+      </c>
+      <c r="J55">
+        <v>106.9</v>
+      </c>
+      <c r="K55">
+        <v>106.4</v>
       </c>
     </row>
   </sheetData>
